--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_2_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_2_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.809763582092344, 50.05136381103996]</t>
+          <t>[49.809771381950775, 50.05135601118153]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.9027585290409, 50.07690203954642]</t>
+          <t>[49.90293016576967, 50.07673040281765]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.809782544402395, 50.06501308497833]</t>
+          <t>[49.810203572536416, 50.06459205684431]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.96582717379337, 50.120397451222615]</t>
+          <t>[49.965860331339634, 50.12036429367635]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.97484580342357, 50.239905203446405]</t>
+          <t>[49.97161668962166, 50.24313431724831]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.96981905779479, 50.115424185459]</t>
+          <t>[49.96983454731227, 50.11540869594152]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.971249382294275, 50.24988176012489]</t>
+          <t>[49.96983705589377, 50.2512940865254]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.937450688869816, 50.081596764395215]</t>
+          <t>[49.93752075726031, 50.08152669600472]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.84375865632237, 50.1597701344462]</t>
+          <t>[49.84573494344371, 50.15779384732486]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.87415376697263, 50.04773737479305]</t>
+          <t>[49.874152348775304, 50.04773879299038]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.96606182806589, 50.22244977388816]</t>
+          <t>[49.9620376735747, 50.22647392837935]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.91383358118734, 50.05984504482712]</t>
+          <t>[49.91385725387003, 50.059821372144434]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.87731691710227, 50.147079714767365]</t>
+          <t>[49.87499021166605, 50.14940642020358]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.95439657973409, 50.10842087473518]</t>
+          <t>[49.954333609188794, 50.108483845280475]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.89105066098353, 50.17475323259696]</t>
+          <t>[49.88977801923445, 50.176025874346045]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.91007911940775, 50.07637579243006]</t>
+          <t>[49.91009557747282, 50.07635933436499]</t>
         </is>
       </c>
       <c r="V9" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_2_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_2_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.809771381950775, 50.05135601118153]</t>
+          <t>[49.80975658614137, 50.05137080699094]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.90293016576967, 50.07673040281765]</t>
+          <t>[49.90280458953594, 50.07685597905138]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.810203572536416, 50.06459205684431]</t>
+          <t>[49.80701572018758, 50.06777990919315]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.965860331339634, 50.12036429367635]</t>
+          <t>[49.96583102529125, 50.120393599724736]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.97161668962166, 50.24313431724831]</t>
+          <t>[49.969503227290836, 50.24524777957914]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.96983454731227, 50.11540869594152]</t>
+          <t>[49.96978755197539, 50.1154556912784]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.96983705589377, 50.2512940865254]</t>
+          <t>[49.968455527938055, 50.25267561448111]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.93752075726031, 50.08152669600472]</t>
+          <t>[49.93744643808753, 50.081601015177505]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.84573494344371, 50.15779384732486]</t>
+          <t>[49.843397359300674, 50.160131431467896]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.874152348775304, 50.04773879299038]</t>
+          <t>[49.87419697498278, 50.047694166782904]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.9620376735747, 50.22647392837935]</t>
+          <t>[49.96275881640493, 50.22575278554912]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.91385725387003, 50.059821372144434]</t>
+          <t>[49.913925055603976, 50.059753570410486]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.87499021166605, 50.14940642020358]</t>
+          <t>[49.87486337196251, 50.14953325990712]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.954333609188794, 50.108483845280475]</t>
+          <t>[49.95441443595303, 50.108403018516235]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.88977801923445, 50.176025874346045]</t>
+          <t>[49.88783479634339, 50.1779690972371]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.91009557747282, 50.07635933436499]</t>
+          <t>[49.91018151187316, 50.07627339996465]</t>
         </is>
       </c>
       <c r="V9" t="n">
